--- a/01-Excel/03-处理重复函数/视频操作文件/处理重复数据.xlsx
+++ b/01-Excel/03-处理重复函数/视频操作文件/处理重复数据.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ztnn/Documents/0399/内容研发与合作/合作05_慕课网_v191223/COP05.5_课程福利/2-Excel模板/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GitHub/data-analysis/01-Excel/03-处理重复函数/视频操作文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2FC251-7338-C74D-A6C7-A68683132675}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1180" windowWidth="27560" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -3558,7 +3559,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3623,7 +3624,37 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3649,6 +3680,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3916,11 +3950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12368,7 +12402,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A454:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01-Excel/03-处理重复函数/视频操作文件/处理重复数据.xlsx
+++ b/01-Excel/03-处理重复函数/视频操作文件/处理重复数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GitHub/data-analysis/01-Excel/03-处理重复函数/视频操作文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2FC251-7338-C74D-A6C7-A68683132675}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82D6400-4AC8-A946-9521-BEA67D42814E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3624,27 +3624,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3953,8 +3933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12402,7 +12382,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A454:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
